--- a/train_tools/qna/DB_QnA.xlsx
+++ b/train_tools/qna/DB_QnA.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asj44\Desktop\wisenut\3차 프로젝트\data\질문 설계\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asj44\Desktop\Kosa_3_ChatBot_Project\train_tools\qna\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -21,58 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <x:si>
-    <x:t xml:space="preserve">B-MWK </x:t>
-  </x:si>
-  <x:si>
-    <x:t>B-LOC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 {B-THR} 알려줘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 {B-THR} 위치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근처 {B-THR} 알려줘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근처 {B-THR} 있어?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-GEN} 영화 추천 좀</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근처 {B-THR} 있나요?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-GEN} 영화 추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-GEN} 영화 추천해줘</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">{B-MWK} 정보 알려줘 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 {B-THR} 있어?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-TER} 있어요?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-TER} 입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-MWK} 정보입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-TER} 있습니까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-TER} 다 알려줘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B-THR</x:t>
+    <x:t>위치를 알려주세요.</x:t>
   </x:si>
   <x:si>
     <x:t>ner</x:t>
@@ -81,97 +30,148 @@
     <x:t>id</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">{B-TER} </x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-TER} 있어?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>위치를 알려주세요.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-TER} 알려줘</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-GEN} 추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-MWK} 정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 {B-THR}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근처 {B-THR}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 {B-THR} 있습니까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근처 {B-THR} 알려주세요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-GEN} 영화 추천해주세요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 {B-THR} 알려주세요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-LOC}의 {B-THR}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-LOC}의 영화관입니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>근처 {B-THR} 있습니까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가까운 {B-THR} 있어요?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-MWK} 정보 알려주세요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-GEN} 장르의 영화에요.</x:t>
+    <x:t>영화문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>intent</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영화관문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>query</x:t>
   </x:si>
   <x:si>
     <x:t>answer</x:t>
   </x:si>
   <x:si>
-    <x:t>{B-MWK}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-GEN}</x:t>
-  </x:si>
-  <x:si>
     <x:t>상영시간표문의</x:t>
   </x:si>
   <x:si>
-    <x:t>영화문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>intent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-LOC}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영화관문의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{B-TER}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>query</x:t>
-  </x:si>
-  <x:si>
     <x:t>영화추천</x:t>
   </x:si>
   <x:si>
-    <x:t>B-TER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>B-GEN</x:t>
+    <x:t xml:space="preserve">B_MWK </x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_MWK} 정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 {B_THR}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_GEN}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B_THR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B_GEN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B_LOC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_MWK}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_LOC}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_TER}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B_TER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_GEN} 영화 추천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_TER} 있습니까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 {B_THR} 위치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_MWK} 정보입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 {B_THR} 있어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_TER} 입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근처 {B_THR} 알려줘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_TER} 다 알려줘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근처 {B_THR} 있나요?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{B_MWK} 정보 알려줘 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_GEN} 영화 추천 좀</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 {B_THR} 알려줘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_GEN} 영화 추천해줘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_TER} 있어요?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근처 {B_THR} 있어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_MWK} 정보 알려주세요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 {B_THR} 알려주세요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 {B_THR} 있습니까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가까운 {B_THR} 있어요?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근처 {B_THR} 알려주세요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_LOC}의 {B_THR}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_GEN} 장르의 영화에요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_GEN} 영화 추천해주세요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근처 {B_THR} 있습니까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_LOC}의 영화관입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>근처 {B_THR}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_GEN} 추천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_TER} 알려줘</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{B_TER} 있어?</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">{B_TER} </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -939,7 +939,7 @@
   <x:dimension ref="A1:E33"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="K30" activeCellId="0" sqref="K30:K30"/>
+      <x:selection activeCell="C3" activeCellId="0" sqref="C3:C3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.399999999999999"/>
@@ -952,19 +952,19 @@
   <x:sheetData>
     <x:row r="1" spans="1:5">
       <x:c r="A1" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E1" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:5">
@@ -972,16 +972,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>10</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E2" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
@@ -989,16 +989,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
       <x:c r="E3" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5">
@@ -1006,16 +1006,16 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E4" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:5">
@@ -1023,16 +1023,16 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E5" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:5">
@@ -1040,16 +1040,16 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E6" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:5">
@@ -1057,16 +1057,16 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>2</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E7" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -1074,16 +1074,16 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E8" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -1091,16 +1091,16 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="E9" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -1108,16 +1108,16 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E10" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:5">
@@ -1125,16 +1125,16 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E11" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:5">
@@ -1142,16 +1142,16 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E12" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:5">
@@ -1159,16 +1159,16 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E13" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:5">
@@ -1176,16 +1176,16 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>4</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E14" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:5">
@@ -1193,16 +1193,16 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E15" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:5">
@@ -1210,16 +1210,16 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E16" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:5">
@@ -1227,16 +1227,16 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:5">
@@ -1244,16 +1244,16 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E18" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:5">
@@ -1261,16 +1261,16 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D19" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E19" s="1" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="C19" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D19" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E19" s="1" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:5">
@@ -1278,16 +1278,16 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D20" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E20" s="1" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="C20" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="D20" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="E20" s="1" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:5">
@@ -1295,16 +1295,16 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:5">
@@ -1312,16 +1312,16 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E22" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:5">
@@ -1329,16 +1329,16 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E23" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:5">
@@ -1346,16 +1346,16 @@
         <x:v>23</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E24" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:5">
@@ -1363,16 +1363,16 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>9</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E25" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:5">
@@ -1380,16 +1380,16 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="B26" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E26" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:5">
@@ -1397,16 +1397,16 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B27" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E27" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:5">
@@ -1414,16 +1414,16 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E28" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:5">
@@ -1431,16 +1431,16 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="D29" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:5">
@@ -1448,16 +1448,16 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E30" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:5">
@@ -1465,16 +1465,16 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E31" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:5">
@@ -1482,16 +1482,16 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E32" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:5">
@@ -1499,20 +1499,20 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>13</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>